--- a/GroceryAppMyProject/src/main/resources/ExcelFiles/excel.xlsx
+++ b/GroceryAppMyProject/src/main/resources/ExcelFiles/excel.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPS\eclipse-workspace\GroceryAppProject\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPS\git\GroceryAppMyProject\GroceryAppMyProject\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C9AEAF-36F0-4664-A43D-A5AF36409A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CEA00E-F602-47AF-A326-3BA575E9356B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ManageContent" sheetId="2" r:id="rId2"/>
+    <sheet name="DeliveryBoy" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -34,16 +36,63 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>http link</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Krishnan</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone number</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>krishnan@gmail.com</t>
+  </si>
+  <si>
+    <t>KrishnanVilla</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>priya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,13 +115,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -353,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -381,4 +438,90 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2286F718-D8C8-43A9-9CD0-E7C3D6D88464}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D86AEC-CFAB-4E2F-B9C4-83D4EF7332E9}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="20.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123456987</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{877CA00B-ED98-456D-AC57-D4BF60163220}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GroceryAppMyProject/src/main/resources/ExcelFiles/excel.xlsx
+++ b/GroceryAppMyProject/src/main/resources/ExcelFiles/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPS\git\GroceryAppMyProject\GroceryAppMyProject\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CEA00E-F602-47AF-A326-3BA575E9356B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94831693-99AF-4F9B-8579-78DC46074592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,9 +505,6 @@
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>123456987</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>

--- a/GroceryAppMyProject/src/main/resources/ExcelFiles/excel.xlsx
+++ b/GroceryAppMyProject/src/main/resources/ExcelFiles/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPS\git\GroceryAppMyProject\GroceryAppMyProject\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94831693-99AF-4F9B-8579-78DC46074592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE0B8CC-62F7-46FD-8AF4-907FD2CDD969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/GroceryAppMyProject/src/main/resources/ExcelFiles/excel.xlsx
+++ b/GroceryAppMyProject/src/main/resources/ExcelFiles/excel.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPS\git\GroceryAppMyProject\GroceryAppMyProject\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE0B8CC-62F7-46FD-8AF4-907FD2CDD969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12355593-2E19-4AEC-9E4D-092489BB50FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ManageContent" sheetId="2" r:id="rId2"/>
-    <sheet name="DeliveryBoy" sheetId="3" r:id="rId3"/>
+    <sheet name="PushNotification" sheetId="4" r:id="rId2"/>
+    <sheet name="ManageContent" sheetId="2" r:id="rId3"/>
+    <sheet name="DeliveryBoy" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -75,13 +76,37 @@
   </si>
   <si>
     <t>priya</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Sign In</t>
+  </si>
+  <si>
+    <t>verifyTextOfSignInButtonInLoginPage</t>
+  </si>
+  <si>
+    <t>verifySignInButtonisClickable</t>
+  </si>
+  <si>
+    <t>Welcome to Application</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>pls enter ur puchase item</t>
+  </si>
+  <si>
+    <t>Message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +121,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,13 +156,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -408,15 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -435,12 +481,65 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8496F43D-E74A-4A63-9CC2-E0ED015004C2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2286F718-D8C8-43A9-9CD0-E7C3D6D88464}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -465,11 +564,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D86AEC-CFAB-4E2F-B9C4-83D4EF7332E9}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
